--- a/tasks/milestones-timeline-effort.xlsx
+++ b/tasks/milestones-timeline-effort.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benci\College\Class\6th Year\2024 Fall (CS)\CS SENIOR DSGN I\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6F30CF5-BEC0-406A-BD19-9A12115AD80A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D254B88-E00F-405C-B892-0AB34244DC82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Milestones" sheetId="1" r:id="rId1"/>
     <sheet name="Timeline" sheetId="2" r:id="rId2"/>
-    <sheet name="Effort Matrix" sheetId="3" r:id="rId3"/>
+    <sheet name="Effort Matrix" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="68">
   <si>
     <t>Research</t>
   </si>
@@ -49,9 +49,6 @@
     <t>Front End</t>
   </si>
   <si>
-    <t>Database</t>
-  </si>
-  <si>
     <t>Obscurity Engine</t>
   </si>
   <si>
@@ -124,9 +121,6 @@
     <t xml:space="preserve">     Collect options for sport-statistics APIs and weigh them against the alternative of web scraping.</t>
   </si>
   <si>
-    <t xml:space="preserve">     Guide discussion of weights on Obscurity Engine parameters (e.g., social following versus on-field statistics).</t>
-  </si>
-  <si>
     <t xml:space="preserve">     Design the UI/UX with a sequence of mockups representing state transitions.</t>
   </si>
   <si>
@@ -136,15 +130,9 @@
     <t xml:space="preserve">     Connect the front end to backend processes like the Query Manager, Guess Validator, Obscurity Engine, etc.</t>
   </si>
   <si>
-    <t xml:space="preserve">     Design the "Athlete DB" with Entity Relationship Diagrams.</t>
-  </si>
-  <si>
     <t xml:space="preserve">     Create database tables with the chosen framework, on the chosen platform. Populate them with test data.</t>
   </si>
   <si>
-    <t xml:space="preserve">     Create Obscurity Engine</t>
-  </si>
-  <si>
     <t xml:space="preserve">     Tune the Obscurity Engine based on its response to predetermined test cases.</t>
   </si>
   <si>
@@ -163,9 +151,6 @@
     <t xml:space="preserve">     Tune the threshold of the Question Validator so that only questions of reasonable difficulty are pushed to the database.</t>
   </si>
   <si>
-    <t xml:space="preserve">     Work on Final Presentation</t>
-  </si>
-  <si>
     <t>WEEK 0</t>
   </si>
   <si>
@@ -215,6 +200,48 @@
   </si>
   <si>
     <t>STETSON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Begin to set up some web scrapers, should that option be pursued, to lay a foundation for our methods and needs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Begin processing some basic, essential data to lay a foundation for our methods and needs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Hold a discussion of weights on Obscurity Engine parameters (e.g., social following versus on-field statistics).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Create the Obscurity Engine by implementing its basic, untuned algorithm and functions.</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Develop a function by which Obscurity Engine outputs are cached for some finite amount of time.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Develop a function by which player inputs are validated for correctness before being passed to the Obscurity Engine.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Develop a function by which trivia questions are validated for appropriate difficulty before being committed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Develop a function by which high scores are saved to ephemeral, daily leaderboards.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Design the database with Entity Relationship Diagrams.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Author our set of trivia questions and insert them into the database via the Question Validator.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Develop a function by which external data is fetched from APIs on non-cached user input.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Work on our final presentation and project board.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Develop the process by which data is standardized. This, of course, requires a choice of standardization factors.</t>
   </si>
 </sst>
 </file>
@@ -343,7 +370,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -502,12 +529,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="6" tint="0.59999389629810485"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6" tint="0.59999389629810485"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="155">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -535,8 +582,7 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
@@ -628,6 +674,42 @@
     <xf numFmtId="9" fontId="2" fillId="14" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="2" fillId="14" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="2" fillId="15" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="12" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="12" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="12" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="1" fillId="9" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="9" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="1" fillId="10" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="10" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="1" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="1" fillId="11" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="11" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="1" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="1" fillId="12" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="1" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="1" fillId="13" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="13" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="1" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="1" fillId="14" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="14" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="14" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="1" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -912,7 +994,7 @@
   <dimension ref="B1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -924,13 +1006,13 @@
     <row r="1" spans="2:4" ht="6" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="8" t="s">
         <v>8</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
@@ -939,7 +1021,7 @@
       </c>
       <c r="C3" s="1"/>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
@@ -948,7 +1030,7 @@
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
@@ -957,43 +1039,43 @@
       </c>
       <c r="C5" s="3"/>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1003,11 +1085,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07B1F07B-4D8F-40B4-AFD6-B7FF172A9438}">
-  <dimension ref="B1:Q30"/>
+  <dimension ref="B1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1017,58 +1099,52 @@
     <col min="6" max="6" width="1.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-    </row>
+    <row r="1" spans="2:17" ht="6" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="28" t="s">
+      <c r="G2" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="H2" s="28" t="s">
+      <c r="M2" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="28" t="s">
+      <c r="N2" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="J2" s="28" t="s">
+      <c r="O2" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="K2" s="28" t="s">
+      <c r="P2" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="L2" s="28" t="s">
+      <c r="Q2" s="27" t="s">
         <v>47</v>
-      </c>
-      <c r="M2" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="N2" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="O2" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="P2" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q2" s="28" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.3">
@@ -1081,65 +1157,65 @@
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B4" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D4" s="16"/>
-      <c r="E4" s="36">
+      <c r="E4" s="35">
         <v>45304</v>
       </c>
-      <c r="G4" s="29"/>
+      <c r="G4" s="28"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B5" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D5" s="17"/>
-      <c r="E5" s="36">
+      <c r="E5" s="35">
         <v>45304</v>
       </c>
-      <c r="G5" s="30"/>
+      <c r="G5" s="29"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B6" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D6" s="17"/>
-      <c r="E6" s="36">
+      <c r="E6" s="35">
         <v>45304</v>
       </c>
-      <c r="G6" s="30"/>
+      <c r="G6" s="29"/>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B7" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D7" s="17"/>
-      <c r="E7" s="36">
+      <c r="E7" s="35">
         <v>45304</v>
       </c>
-      <c r="G7" s="30"/>
+      <c r="G7" s="29"/>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B8" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D8" s="9"/>
-      <c r="E8" s="37">
+      <c r="E8" s="36">
         <v>45304</v>
       </c>
       <c r="G8" s="1"/>
@@ -1154,296 +1230,461 @@
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B10" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D10" s="18"/>
-      <c r="E10" s="38">
+      <c r="E10" s="37">
         <v>45304</v>
       </c>
-      <c r="G10" s="2"/>
+      <c r="G10" s="30"/>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B11" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="38"/>
+      <c r="E11" s="37">
+        <v>45304</v>
+      </c>
+      <c r="G11" s="119"/>
+      <c r="H11" s="120"/>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B12" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="38"/>
+      <c r="E12" s="37">
+        <v>45304</v>
+      </c>
+      <c r="G12" s="119"/>
+      <c r="H12" s="120"/>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B13" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="38"/>
+      <c r="E13" s="37">
+        <v>45304</v>
+      </c>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B14" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="34">
+        <v>45304</v>
+      </c>
+      <c r="E14" s="34">
+        <v>45311</v>
+      </c>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B16" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="39">
+      <c r="C16" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="39">
         <v>45304</v>
       </c>
-      <c r="E11" s="39">
+      <c r="E16" s="39">
         <v>45311</v>
       </c>
-      <c r="H11" s="31"/>
-    </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B12" s="10" t="s">
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B17" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" s="35">
+      <c r="C17" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="40">
+        <v>45325</v>
+      </c>
+      <c r="E17" s="40">
+        <v>45339</v>
+      </c>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B18" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="41">
+        <v>45339</v>
+      </c>
+      <c r="E18" s="41">
+        <v>45346</v>
+      </c>
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B19" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="G19" s="123"/>
+      <c r="H19" s="123"/>
+      <c r="I19" s="123"/>
+      <c r="J19" s="123"/>
+      <c r="K19" s="123"/>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B20" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="42">
         <v>45304</v>
       </c>
-      <c r="E12" s="35">
+      <c r="E20" s="42">
         <v>45311</v>
       </c>
-      <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B13" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B14" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" s="40">
-        <v>45304</v>
-      </c>
-      <c r="E14" s="40">
+      <c r="G20" s="123"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="123"/>
+      <c r="J20" s="123"/>
+      <c r="K20" s="123"/>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B21" s="121" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="121" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="122">
         <v>45311</v>
       </c>
-      <c r="H14" s="3"/>
-    </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B15" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" s="41">
+      <c r="E21" s="122">
+        <v>45318</v>
+      </c>
+      <c r="G21" s="123"/>
+      <c r="H21" s="123"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="123"/>
+      <c r="K21" s="123"/>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B22" s="121" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="121" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="122">
+        <v>45318</v>
+      </c>
+      <c r="E22" s="122">
         <v>45325</v>
       </c>
-      <c r="E15" s="41">
-        <v>45339</v>
-      </c>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B16" s="11" t="s">
+      <c r="G22" s="123"/>
+      <c r="H22" s="123"/>
+      <c r="I22" s="123"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="123"/>
+      <c r="L22" s="123"/>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B23" s="121" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="121" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="122">
+        <v>45325</v>
+      </c>
+      <c r="E23" s="122">
+        <v>45332</v>
+      </c>
+      <c r="I23" s="123"/>
+      <c r="J23" s="123"/>
+      <c r="K23" s="4"/>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B24" s="121" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="121" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="122">
+        <v>45332</v>
+      </c>
+      <c r="E24" s="122">
+        <v>45346</v>
+      </c>
+      <c r="I24" s="123"/>
+      <c r="J24" s="123"/>
+      <c r="K24" s="123"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B25" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="43">
+        <v>45361</v>
+      </c>
+      <c r="E25" s="43">
+        <v>45375</v>
+      </c>
+      <c r="I25" s="123"/>
+      <c r="J25" s="123"/>
+      <c r="K25" s="123"/>
+      <c r="L25" s="123"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B26" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B27" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" s="44">
+        <v>45311</v>
+      </c>
+      <c r="E27" s="44">
+        <v>45332</v>
+      </c>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="31"/>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B28" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D28" s="44">
+        <v>45325</v>
+      </c>
+      <c r="E28" s="44">
+        <v>45332</v>
+      </c>
+      <c r="I28" s="123"/>
+      <c r="J28" s="123"/>
+      <c r="K28" s="5"/>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B29" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" s="42">
-        <v>45339</v>
-      </c>
-      <c r="E16" s="42">
+      <c r="C29" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="D29" s="45">
+        <v>45332</v>
+      </c>
+      <c r="E29" s="45">
         <v>45346</v>
       </c>
-      <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B17" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-    </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B18" s="22" t="s">
+      <c r="L29" s="31"/>
+      <c r="M29" s="31"/>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B30" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" s="43">
-        <v>45311</v>
-      </c>
-      <c r="E18" s="43">
-        <v>45318</v>
-      </c>
-      <c r="I18" s="4"/>
-    </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B19" s="12" t="s">
+      <c r="C30" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30" s="45">
+        <v>45332</v>
+      </c>
+      <c r="E30" s="45">
+        <v>45346</v>
+      </c>
+      <c r="L30" s="32"/>
+      <c r="M30" s="32"/>
+    </row>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B31" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19" s="44">
-        <v>45318</v>
-      </c>
-      <c r="E19" s="44">
-        <v>45325</v>
-      </c>
-      <c r="J19" s="4"/>
-    </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B20" s="5" t="s">
+      <c r="C31" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D31" s="46">
+        <v>45332</v>
+      </c>
+      <c r="E31" s="46">
+        <v>45346</v>
+      </c>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+    </row>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B32" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-    </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B21" s="23" t="s">
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B33" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="D21" s="45">
-        <v>45311</v>
-      </c>
-      <c r="E21" s="45">
+      <c r="C33" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D33" s="47">
+        <v>45346</v>
+      </c>
+      <c r="E33" s="47">
+        <v>45354</v>
+      </c>
+      <c r="N33" s="33"/>
+      <c r="O33" s="123"/>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B34" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="D34" s="48">
+        <v>45346</v>
+      </c>
+      <c r="E34" s="48">
+        <v>45354</v>
+      </c>
+      <c r="N34" s="6"/>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B35" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D35" s="49">
+        <v>45361</v>
+      </c>
+      <c r="E35" s="49">
+        <v>45368</v>
+      </c>
+      <c r="P35" s="6"/>
+    </row>
+    <row r="36" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B36" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C36" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36" s="48">
         <v>45332</v>
       </c>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-    </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B22" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="D22" s="46">
-        <v>45332</v>
-      </c>
-      <c r="E22" s="46">
+      <c r="E36" s="48">
         <v>45346</v>
       </c>
-      <c r="L22" s="32"/>
-      <c r="M22" s="32"/>
-    </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B23" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="D23" s="46">
-        <v>45332</v>
-      </c>
-      <c r="E23" s="46">
-        <v>45346</v>
-      </c>
-      <c r="L23" s="33"/>
-      <c r="M23" s="33"/>
-    </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B24" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D24" s="47">
-        <v>45332</v>
-      </c>
-      <c r="E24" s="47">
-        <v>45346</v>
-      </c>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-    </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B25" s="6" t="s">
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
+      <c r="P36" s="123"/>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B37" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C37" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="D37" s="48">
+        <v>45354</v>
+      </c>
+      <c r="E37" s="48">
+        <v>45361</v>
+      </c>
+      <c r="O37" s="6"/>
+      <c r="P37" s="123"/>
+    </row>
+    <row r="38" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B38" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-    </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B26" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="C26" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="D26" s="48">
-        <v>45346</v>
-      </c>
-      <c r="E26" s="48">
-        <v>45361</v>
-      </c>
-      <c r="N26" s="34"/>
-      <c r="O26" s="6"/>
-    </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B27" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="C27" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="D27" s="49">
-        <v>45346</v>
-      </c>
-      <c r="E27" s="49">
-        <v>45354</v>
-      </c>
-      <c r="N27" s="6"/>
-    </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B28" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="D28" s="50">
-        <v>45361</v>
-      </c>
-      <c r="E28" s="50">
-        <v>45368</v>
-      </c>
-      <c r="P28" s="6"/>
-    </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B29" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-    </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B30" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="D30" s="15"/>
-      <c r="E30" s="51">
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B39" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D39" s="15"/>
+      <c r="E39" s="50">
         <v>45375</v>
       </c>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="7"/>
-      <c r="M30" s="7"/>
-      <c r="N30" s="7"/>
-      <c r="O30" s="7"/>
-      <c r="P30" s="7"/>
-      <c r="Q30" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="7"/>
+      <c r="N39" s="7"/>
+      <c r="O39" s="7"/>
+      <c r="P39" s="7"/>
+      <c r="Q39" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -1452,128 +1693,134 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC7C9267-EBB7-4E29-926C-75B747B3676B}">
-  <dimension ref="B1:F30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{717B7D18-5B8E-4E63-9994-7519E61FA2AB}">
+  <dimension ref="B1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="1.109375" customWidth="1"/>
     <col min="2" max="2" width="102.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="124"/>
+    <col min="4" max="5" width="8.88671875" style="126"/>
+    <col min="6" max="6" width="8.88671875" style="126" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1" spans="2:6" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F1" s="127"/>
+    </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B2" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>58</v>
+        <v>19</v>
+      </c>
+      <c r="D2" s="128" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="128" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="129" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="132"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="78" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" s="53">
-        <v>0.25</v>
-      </c>
-      <c r="E4" s="53">
-        <v>0.25</v>
-      </c>
-      <c r="F4" s="102">
+        <v>20</v>
+      </c>
+      <c r="C4" s="77" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="133">
+        <v>0.25</v>
+      </c>
+      <c r="E4" s="52">
+        <v>0.25</v>
+      </c>
+      <c r="F4" s="101">
         <v>0.5</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="79" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" s="54">
-        <v>0.25</v>
-      </c>
-      <c r="E5" s="103">
-        <v>0.5</v>
-      </c>
-      <c r="F5" s="54">
+        <v>21</v>
+      </c>
+      <c r="C5" s="78" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="134">
+        <v>0.25</v>
+      </c>
+      <c r="E5" s="102">
+        <v>0.5</v>
+      </c>
+      <c r="F5" s="52">
         <v>0.25</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="79" t="s">
-        <v>54</v>
-      </c>
-      <c r="D6" s="54">
-        <v>0.25</v>
-      </c>
-      <c r="E6" s="103">
-        <v>0.5</v>
-      </c>
-      <c r="F6" s="54">
+        <v>22</v>
+      </c>
+      <c r="C6" s="78" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="134">
+        <v>0.25</v>
+      </c>
+      <c r="E6" s="102">
+        <v>0.5</v>
+      </c>
+      <c r="F6" s="52">
         <v>0.25</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="79" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" s="103">
-        <v>0.5</v>
-      </c>
-      <c r="E7" s="54">
-        <v>0.25</v>
-      </c>
-      <c r="F7" s="54">
+        <v>23</v>
+      </c>
+      <c r="C7" s="78" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="102">
+        <v>0.5</v>
+      </c>
+      <c r="E7" s="53">
+        <v>0.25</v>
+      </c>
+      <c r="F7" s="52">
         <v>0.25</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="80" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" s="104">
-        <v>0.5</v>
-      </c>
-      <c r="E8" s="55">
-        <v>0.25</v>
-      </c>
-      <c r="F8" s="55">
+        <v>24</v>
+      </c>
+      <c r="C8" s="79" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="103">
+        <v>0.5</v>
+      </c>
+      <c r="E8" s="54">
+        <v>0.25</v>
+      </c>
+      <c r="F8" s="54">
         <v>0.25</v>
       </c>
     </row>
@@ -1581,325 +1828,478 @@
       <c r="B9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="81"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="56"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="135"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="82" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" s="57">
-        <v>0.25</v>
-      </c>
-      <c r="E10" s="105">
-        <v>0.5</v>
-      </c>
-      <c r="F10" s="57">
+        <v>25</v>
+      </c>
+      <c r="C10" s="81" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="136">
+        <v>0.25</v>
+      </c>
+      <c r="E10" s="104">
+        <v>0.5</v>
+      </c>
+      <c r="F10" s="56">
         <v>0.25</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B11" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="82" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="105">
+        <v>0.5</v>
+      </c>
+      <c r="E11" s="57">
+        <v>0.25</v>
+      </c>
+      <c r="F11" s="56">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B12" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="82" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="137">
+        <v>0.25</v>
+      </c>
+      <c r="E12" s="105">
+        <v>0.5</v>
+      </c>
+      <c r="F12" s="56">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B13" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="82" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="137">
+        <v>0.25</v>
+      </c>
+      <c r="E13" s="105">
+        <v>0.5</v>
+      </c>
+      <c r="F13" s="56">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B14" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="83" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="138">
+        <v>0.25</v>
+      </c>
+      <c r="E14" s="58">
+        <v>0.25</v>
+      </c>
+      <c r="F14" s="106">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="84"/>
+      <c r="D15" s="139"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B16" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="83" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="106">
-        <v>0.5</v>
-      </c>
-      <c r="E11" s="58">
-        <v>0.25</v>
-      </c>
-      <c r="F11" s="58">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="10" t="s">
+      <c r="C16" s="85" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="140">
+        <v>0.25</v>
+      </c>
+      <c r="E16" s="107">
+        <v>0.5</v>
+      </c>
+      <c r="F16" s="60">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="84" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" s="59">
-        <v>0.25</v>
-      </c>
-      <c r="E12" s="59">
-        <v>0.25</v>
-      </c>
-      <c r="F12" s="107">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" s="85"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="60"/>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="20" t="s">
+      <c r="C17" s="86" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="141">
+        <v>0.25</v>
+      </c>
+      <c r="E17" s="108">
+        <v>0.5</v>
+      </c>
+      <c r="F17" s="61">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B18" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="86" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" s="61">
-        <v>0.25</v>
-      </c>
-      <c r="E14" s="108">
-        <v>0.5</v>
-      </c>
-      <c r="F14" s="61">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="21" t="s">
+      <c r="C18" s="87" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="142">
+        <v>0.25</v>
+      </c>
+      <c r="E18" s="62">
+        <v>0.25</v>
+      </c>
+      <c r="F18" s="109">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B19" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="88"/>
+      <c r="D19" s="143"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B20" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="89" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="110">
+        <v>0.5</v>
+      </c>
+      <c r="E20" s="64">
+        <v>0.25</v>
+      </c>
+      <c r="F20" s="64">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B21" s="121" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="87" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" s="62">
-        <v>0.25</v>
-      </c>
-      <c r="E15" s="109">
-        <v>0.5</v>
-      </c>
-      <c r="F15" s="62">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="11" t="s">
+      <c r="C21" s="125" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="131">
+        <v>0.5</v>
+      </c>
+      <c r="E21" s="130">
+        <v>0.25</v>
+      </c>
+      <c r="F21" s="130">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B22" s="121" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="125" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="131">
+        <v>0.5</v>
+      </c>
+      <c r="E22" s="130">
+        <v>0.25</v>
+      </c>
+      <c r="F22" s="130">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B23" s="121" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="125" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="131">
+        <v>0.5</v>
+      </c>
+      <c r="E23" s="130">
+        <v>0.25</v>
+      </c>
+      <c r="F23" s="130">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B24" s="121" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="125" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="144">
+        <v>0.25</v>
+      </c>
+      <c r="E24" s="131">
+        <v>0.5</v>
+      </c>
+      <c r="F24" s="130">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B25" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="90" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="145">
+        <v>0.25</v>
+      </c>
+      <c r="E25" s="65">
+        <v>0.25</v>
+      </c>
+      <c r="F25" s="111">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B26" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="91"/>
+      <c r="D26" s="146"/>
+      <c r="E26" s="66"/>
+      <c r="F26" s="66"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B27" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" s="92" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" s="147">
+        <v>0.25</v>
+      </c>
+      <c r="E27" s="112">
+        <v>0.5</v>
+      </c>
+      <c r="F27" s="67">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B28" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" s="92" t="s">
+        <v>50</v>
+      </c>
+      <c r="D28" s="147">
+        <v>0.25</v>
+      </c>
+      <c r="E28" s="67">
+        <v>0.25</v>
+      </c>
+      <c r="F28" s="112">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B29" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="88" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" s="63">
-        <v>0.25</v>
-      </c>
-      <c r="E16" s="110">
-        <v>0.5</v>
-      </c>
-      <c r="F16" s="63">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="89"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="64"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="22" t="s">
+      <c r="C29" s="93" t="s">
+        <v>50</v>
+      </c>
+      <c r="D29" s="148">
+        <v>0.25</v>
+      </c>
+      <c r="E29" s="68">
+        <v>0.25</v>
+      </c>
+      <c r="F29" s="113">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B30" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="90" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" s="111">
-        <v>0.5</v>
-      </c>
-      <c r="E18" s="65">
-        <v>0.25</v>
-      </c>
-      <c r="F18" s="65">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="12" t="s">
+      <c r="C30" s="93" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30" s="148">
+        <v>0.25</v>
+      </c>
+      <c r="E30" s="68">
+        <v>0.25</v>
+      </c>
+      <c r="F30" s="113">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B31" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="91" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19" s="112">
-        <v>0.5</v>
-      </c>
-      <c r="E19" s="66">
-        <v>0.25</v>
-      </c>
-      <c r="F19" s="66">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B20" s="5" t="s">
+      <c r="C31" s="94" t="s">
+        <v>50</v>
+      </c>
+      <c r="D31" s="149">
+        <v>0.25</v>
+      </c>
+      <c r="E31" s="69">
+        <v>0.25</v>
+      </c>
+      <c r="F31" s="114">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B32" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="92"/>
-      <c r="D20" s="67"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="67"/>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="23" t="s">
+      <c r="C32" s="95"/>
+      <c r="D32" s="150"/>
+      <c r="E32" s="70"/>
+      <c r="F32" s="70"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B33" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="93" t="s">
-        <v>54</v>
-      </c>
-      <c r="D21" s="68">
-        <v>0.25</v>
-      </c>
-      <c r="E21" s="113">
-        <v>0.5</v>
-      </c>
-      <c r="F21" s="68">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B22" s="24" t="s">
+      <c r="C33" s="96" t="s">
+        <v>49</v>
+      </c>
+      <c r="D33" s="151">
+        <v>0.25</v>
+      </c>
+      <c r="E33" s="115">
+        <v>0.5</v>
+      </c>
+      <c r="F33" s="71">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B34" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="94" t="s">
-        <v>55</v>
-      </c>
-      <c r="D22" s="69">
-        <v>0.25</v>
-      </c>
-      <c r="E22" s="69">
-        <v>0.25</v>
-      </c>
-      <c r="F22" s="114">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B23" s="24" t="s">
+      <c r="C34" s="97" t="s">
+        <v>48</v>
+      </c>
+      <c r="D34" s="116">
+        <v>0.5</v>
+      </c>
+      <c r="E34" s="72">
+        <v>0.25</v>
+      </c>
+      <c r="F34" s="72">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B35" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="94" t="s">
-        <v>55</v>
-      </c>
-      <c r="D23" s="69">
-        <v>0.25</v>
-      </c>
-      <c r="E23" s="69">
-        <v>0.25</v>
-      </c>
-      <c r="F23" s="114">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B24" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C24" s="95" t="s">
-        <v>55</v>
-      </c>
-      <c r="D24" s="70">
-        <v>0.25</v>
-      </c>
-      <c r="E24" s="70">
-        <v>0.25</v>
-      </c>
-      <c r="F24" s="115">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B25" s="6" t="s">
+      <c r="C35" s="98" t="s">
+        <v>50</v>
+      </c>
+      <c r="D35" s="153">
+        <v>0.25</v>
+      </c>
+      <c r="E35" s="73">
+        <v>0.25</v>
+      </c>
+      <c r="F35" s="117">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B36" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C36" s="97" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36" s="116">
+        <v>0.5</v>
+      </c>
+      <c r="E36" s="72">
+        <v>0.25</v>
+      </c>
+      <c r="F36" s="72">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B37" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C37" s="97" t="s">
+        <v>49</v>
+      </c>
+      <c r="D37" s="152">
+        <v>0.25</v>
+      </c>
+      <c r="E37" s="116">
+        <v>0.5</v>
+      </c>
+      <c r="F37" s="72">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B38" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="96"/>
-      <c r="D25" s="71"/>
-      <c r="E25" s="71"/>
-      <c r="F25" s="71"/>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B26" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="C26" s="97" t="s">
-        <v>54</v>
-      </c>
-      <c r="D26" s="72">
-        <v>0.25</v>
-      </c>
-      <c r="E26" s="116">
-        <v>0.5</v>
-      </c>
-      <c r="F26" s="72">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B27" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="C27" s="98" t="s">
-        <v>53</v>
-      </c>
-      <c r="D27" s="117">
-        <v>0.5</v>
-      </c>
-      <c r="E27" s="73">
-        <v>0.25</v>
-      </c>
-      <c r="F27" s="73">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B28" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28" s="99" t="s">
-        <v>55</v>
-      </c>
-      <c r="D28" s="74">
-        <v>0.25</v>
-      </c>
-      <c r="E28" s="74">
-        <v>0.25</v>
-      </c>
-      <c r="F28" s="118">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B29" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29" s="100"/>
-      <c r="D29" s="75"/>
-      <c r="E29" s="75"/>
-      <c r="F29" s="75"/>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B30" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="C30" s="101" t="s">
-        <v>53</v>
-      </c>
-      <c r="D30" s="119">
-        <v>0.5</v>
-      </c>
-      <c r="E30" s="76">
-        <v>0.25</v>
-      </c>
-      <c r="F30" s="76">
+      <c r="C38" s="99"/>
+      <c r="D38" s="154"/>
+      <c r="E38" s="74"/>
+      <c r="F38" s="74"/>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B39" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C39" s="100" t="s">
+        <v>48</v>
+      </c>
+      <c r="D39" s="118">
+        <v>0.5</v>
+      </c>
+      <c r="E39" s="75">
+        <v>0.25</v>
+      </c>
+      <c r="F39" s="75">
         <v>0.25</v>
       </c>
     </row>
